--- a/data_epc_finance.xlsx
+++ b/data_epc_finance.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,6 +648,109 @@
         </is>
       </c>
       <c r="Y2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-24 10:45</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14,86</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14,86</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>69</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7,70</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>44,98</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>41</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>79</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>30</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>7</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>7</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>5,38</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
         <v>27</v>
       </c>
     </row>
@@ -878,13 +981,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795F1CD2-51AD-491E-9F95-624D478EA112}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC67C9A6-E850-4AC6-9400-5928F748D5B1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C0B37A4-0215-43DB-8343-AE90A39205BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EBA52D2-1B7F-4F45-9171-158D5E2842FE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{869A003D-D289-42C7-9824-476BFFFDF0DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F83D1B6-CFD3-4B1B-B7DD-D53D14034381}"/>
 </file>
--- a/data_epc_finance.xlsx
+++ b/data_epc_finance.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,6 +751,109 @@
         </is>
       </c>
       <c r="Y3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-25 06:29</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14,79</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14,79</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>69</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7,78</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>45,27</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>41</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>79</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>30</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>7</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>7</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
         <v>27</v>
       </c>
     </row>
@@ -981,13 +1084,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC67C9A6-E850-4AC6-9400-5928F748D5B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B60042A7-7F33-4835-9092-8E16B056DBA6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EBA52D2-1B7F-4F45-9171-158D5E2842FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1D2657A-A910-4406-8053-623C0C578296}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F83D1B6-CFD3-4B1B-B7DD-D53D14034381}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DF156A6-1659-4C86-AD41-3DEDC21CBD58}"/>
 </file>